--- a/FreeCRMTest/TestData/CalendarTestData.xlsx
+++ b/FreeCRMTest/TestData/CalendarTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Title</t>
   </si>
@@ -52,9 +52,6 @@
     <t>ReminderTime</t>
   </si>
   <si>
-    <t>Assigned To</t>
-  </si>
-  <si>
     <t>Participants</t>
   </si>
   <si>
@@ -73,40 +70,58 @@
     <t>EndDate</t>
   </si>
   <si>
-    <t>My meeting title-1</t>
-  </si>
-  <si>
-    <t>title 2</t>
-  </si>
-  <si>
-    <t>title 3</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>yui</t>
-  </si>
-  <si>
-    <t>dsfsdf</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>fsf</t>
-  </si>
-  <si>
-    <t>yujuj</t>
-  </si>
-  <si>
-    <t>gjnvg</t>
-  </si>
-  <si>
-    <t>avb</t>
+    <t>My Meeting title</t>
+  </si>
+  <si>
+    <t>My Calender</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>23/01/2021 16:15</t>
+  </si>
+  <si>
+    <t>30/03/2021 22:30</t>
+  </si>
+  <si>
+    <t>standup meeting</t>
+  </si>
+  <si>
+    <t>My meeting Description</t>
+  </si>
+  <si>
+    <t>My meeting Location</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>client deal</t>
+  </si>
+  <si>
+    <t>client task</t>
+  </si>
+  <si>
+    <t>client case</t>
+  </si>
+  <si>
+    <t>1 Hour</t>
+  </si>
+  <si>
+    <t>Rajat P</t>
+  </si>
+  <si>
+    <t>Rahul Gupta</t>
+  </si>
+  <si>
+    <t>Google inc.</t>
+  </si>
+  <si>
+    <t>Google meeting Identifier</t>
+  </si>
+  <si>
+    <t>AssignedTo</t>
   </si>
 </sst>
 </file>
@@ -171,12 +186,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,199 +489,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3">
-        <v>15</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4">
-        <v>44175</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3">
-        <v>20</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3">
-        <v>25</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="O2" s="2">
+        <v>50</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
